--- a/批次新增商品檔案測試.xlsx
+++ b/批次新增商品檔案測試.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAA079-A20A-46DE-ABA5-4B7F9D67C4C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C01FC-ECDD-4537-9BB3-F3BB5C3DBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="5232" xr2:uid="{51519D56-2B06-49D2-8C56-3C32AB7CEF71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{51519D56-2B06-49D2-8C56-3C32AB7CEF71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>型號(productId)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,9 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B103</t>
-  </si>
-  <si>
     <t>B104</t>
   </si>
   <si>
@@ -100,58 +106,10 @@
     <t>B113</t>
   </si>
   <si>
-    <t>餅乾模</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>醬料刷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子秤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>量匙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔熱手套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派烤盤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋糕烤盤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可麗露模</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烘焙紙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>計時器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BBB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>烘焙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>好用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,6 +173,47 @@
   <si>
     <t>sp庫存</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C103.jpg</t>
+  </si>
+  <si>
+    <t>B104.jpg</t>
+  </si>
+  <si>
+    <t>B105.jpg</t>
+  </si>
+  <si>
+    <t>B106.jpg</t>
+  </si>
+  <si>
+    <t>B107.jpg</t>
+  </si>
+  <si>
+    <t>B108.jpg</t>
+  </si>
+  <si>
+    <t>B109.jpg</t>
+  </si>
+  <si>
+    <t>B110.jpg</t>
+  </si>
+  <si>
+    <t>B111.jpg</t>
+  </si>
+  <si>
+    <t>B112.jpg</t>
+  </si>
+  <si>
+    <t>B113.jpg</t>
   </si>
 </sst>
 </file>
@@ -606,22 +605,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCD37A7-FE82-48DC-953B-9BBA88186977}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.08984375" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,33 +652,33 @@
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -688,16 +687,19 @@
         <v>32345678</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -724,12 +726,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -738,27 +740,51 @@
         <v>42345678</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -767,27 +793,51 @@
         <v>52345678</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>1500</v>
@@ -796,27 +846,51 @@
         <v>62345678</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -825,27 +899,51 @@
         <v>72345678</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -854,27 +952,51 @@
         <v>82345678</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
@@ -883,27 +1005,51 @@
         <v>92345678</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -912,27 +1058,51 @@
         <v>10234567</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>400</v>
@@ -941,27 +1111,51 @@
         <v>11234567</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -970,27 +1164,51 @@
         <v>12234567</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>200</v>
@@ -999,19 +1217,43 @@
         <v>13234567</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/批次新增商品檔案測試.xlsx
+++ b/批次新增商品檔案測試.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C01FC-ECDD-4537-9BB3-F3BB5C3DBD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE02D9-9AA7-496D-8222-2BE8AD162C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{51519D56-2B06-49D2-8C56-3C32AB7CEF71}"/>
   </bookViews>
@@ -34,47 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
-  <si>
-    <t>型號(productId)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品名(productName)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定價(price)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>條碼(barcode)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌(brand)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品館別(productDepartment)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>產品分類(productType)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否上架(isLaunch)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品圖片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>B104</t>
   </si>
@@ -106,10 +66,6 @@
     <t>B113</t>
   </si>
   <si>
-    <t>BBB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>好用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,42 +103,10 @@
     <t>好用計時器</t>
   </si>
   <si>
-    <t>總庫存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecId_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecId_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecId_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo庫存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc庫存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp庫存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C103</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CCC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C103.jpg</t>
   </si>
   <si>
@@ -214,12 +138,83 @@
   </si>
   <si>
     <t>B113.jpg</t>
+  </si>
+  <si>
+    <t>型號(productId)0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名(productName)1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定價(price)2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>條碼(barcode)3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌(brand)4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品館別(productDepartment)5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品分類(productType)6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品圖片7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總庫存9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否上架(isLaunch)10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecId_1 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecId_2 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecId_3 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo庫存 14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc庫存 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp庫存 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -273,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,80 +606,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCD37A7-FE82-48DC-953B-9BBA88186977}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.08984375" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -686,8 +688,8 @@
       <c r="D2" s="2">
         <v>32345678</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
+      <c r="E2" s="5">
+        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -696,42 +698,42 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
         <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
@@ -739,8 +741,8 @@
       <c r="D3" s="2">
         <v>42345678</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
+      <c r="E3" s="5">
+        <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -749,42 +751,42 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30</v>
       </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
       <c r="Q3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -792,8 +794,8 @@
       <c r="D4" s="2">
         <v>52345678</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
+      <c r="E4" s="5">
+        <v>2</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -802,42 +804,42 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4" s="2">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>30</v>
-      </c>
-      <c r="O4">
-        <v>20</v>
       </c>
       <c r="P4">
         <v>20</v>
       </c>
       <c r="Q4">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>1500</v>
@@ -845,8 +847,8 @@
       <c r="D5" s="2">
         <v>62345678</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
+      <c r="E5" s="5">
+        <v>2</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -855,42 +857,42 @@
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
         <v>15</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -898,8 +900,8 @@
       <c r="D6" s="2">
         <v>72345678</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
+      <c r="E6" s="5">
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -908,42 +910,42 @@
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -951,8 +953,8 @@
       <c r="D7" s="2">
         <v>82345678</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
+      <c r="E7" s="5">
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -961,42 +963,42 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
@@ -1004,8 +1006,8 @@
       <c r="D8" s="2">
         <v>92345678</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
+      <c r="E8" s="5">
+        <v>2</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -1014,42 +1016,42 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -1057,8 +1059,8 @@
       <c r="D9" s="2">
         <v>10234567</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
+      <c r="E9" s="5">
+        <v>2</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -1067,42 +1069,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>3</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>400</v>
@@ -1110,8 +1112,8 @@
       <c r="D10" s="2">
         <v>11234567</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
+      <c r="E10" s="5">
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -1120,42 +1122,42 @@
         <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
       <c r="Q10">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -1163,8 +1165,8 @@
       <c r="D11" s="2">
         <v>12234567</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
+      <c r="E11" s="5">
+        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -1173,42 +1175,42 @@
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>200</v>
@@ -1216,8 +1218,8 @@
       <c r="D12" s="2">
         <v>13234567</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
+      <c r="E12" s="5">
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -1226,34 +1228,34 @@
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
         <v>6</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/批次新增商品檔案測試.xlsx
+++ b/批次新增商品檔案測試.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE02D9-9AA7-496D-8222-2BE8AD162C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE52127-022B-499D-A58D-864DE2705AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{51519D56-2B06-49D2-8C56-3C32AB7CEF71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{51519D56-2B06-49D2-8C56-3C32AB7CEF71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>B104</t>
   </si>
@@ -205,6 +206,83 @@
   </si>
   <si>
     <t>sp庫存 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好用烘焙紙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好用麵粉篩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕德頸枕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕德背包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐森主廚刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐森餅乾模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A206.jpg</t>
+  </si>
+  <si>
+    <t>A205.jpg</t>
+  </si>
+  <si>
+    <t>B307.jpg</t>
+  </si>
+  <si>
+    <t>B309.jpg</t>
+  </si>
+  <si>
+    <t>C204.jpg</t>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -284,17 +362,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -606,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCD37A7-FE82-48DC-953B-9BBA88186977}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1263,4 +1392,411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC259F5-865C-4A90-AD2C-3B376B087278}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>12558560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>399</v>
+      </c>
+      <c r="D3">
+        <v>20814809</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>44111333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>61070630</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>75227522</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>350</v>
+      </c>
+      <c r="D7">
+        <v>83702335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>